--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.00567309947927</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H2">
-        <v>5.00567309947927</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I2">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J2">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N2">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O2">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P2">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q2">
-        <v>23.50384679266078</v>
+        <v>357.1664757675238</v>
       </c>
       <c r="R2">
-        <v>23.50384679266078</v>
+        <v>3214.498281907714</v>
       </c>
       <c r="S2">
-        <v>0.02292941534830709</v>
+        <v>0.1498224177932718</v>
       </c>
       <c r="T2">
-        <v>0.02292941534830709</v>
+        <v>0.1498224177932718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.00567309947927</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H3">
-        <v>5.00567309947927</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I3">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J3">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N3">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P3">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q3">
-        <v>137.4707082742181</v>
+        <v>356.763449948213</v>
       </c>
       <c r="R3">
-        <v>137.4707082742181</v>
+        <v>3210.871049533916</v>
       </c>
       <c r="S3">
-        <v>0.1341109392029296</v>
+        <v>0.1496533585260141</v>
       </c>
       <c r="T3">
-        <v>0.1341109392029296</v>
+        <v>0.1496533585260142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.00567309947927</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H4">
-        <v>5.00567309947927</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I4">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J4">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N4">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O4">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P4">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q4">
-        <v>203.13265111596</v>
+        <v>585.3774138925023</v>
       </c>
       <c r="R4">
-        <v>203.13265111596</v>
+        <v>5268.39672503252</v>
       </c>
       <c r="S4">
-        <v>0.198168111344863</v>
+        <v>0.2455512076895825</v>
       </c>
       <c r="T4">
-        <v>0.198168111344863</v>
+        <v>0.2455512076895826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.00567309947927</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H5">
-        <v>5.00567309947927</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I5">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J5">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N5">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O5">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P5">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q5">
-        <v>166.6637483630579</v>
+        <v>438.8243734737321</v>
       </c>
       <c r="R5">
-        <v>166.6637483630579</v>
+        <v>3949.419361263589</v>
       </c>
       <c r="S5">
-        <v>0.1625905045856399</v>
+        <v>0.1840758668046032</v>
       </c>
       <c r="T5">
-        <v>0.1625905045856399</v>
+        <v>0.1840758668046032</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9432936425815041</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H6">
-        <v>0.9432936425815041</v>
+        <v>3.14344</v>
       </c>
       <c r="I6">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J6">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N6">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O6">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P6">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q6">
-        <v>4.429180414924218</v>
+        <v>28.85237908254222</v>
       </c>
       <c r="R6">
-        <v>4.429180414924218</v>
+        <v>259.67141174288</v>
       </c>
       <c r="S6">
-        <v>0.004320931730124143</v>
+        <v>0.01210285255340739</v>
       </c>
       <c r="T6">
-        <v>0.004320931730124143</v>
+        <v>0.0121028525534074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9432936425815041</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H7">
-        <v>0.9432936425815041</v>
+        <v>3.14344</v>
       </c>
       <c r="I7">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J7">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N7">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O7">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P7">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q7">
-        <v>25.90565595858354</v>
+        <v>28.81982212519111</v>
       </c>
       <c r="R7">
-        <v>25.90565595858354</v>
+        <v>259.37839912672</v>
       </c>
       <c r="S7">
-        <v>0.02527252456096629</v>
+        <v>0.01208919572277721</v>
       </c>
       <c r="T7">
-        <v>0.02527252456096629</v>
+        <v>0.01208919572277722</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9432936425815041</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H8">
-        <v>0.9432936425815041</v>
+        <v>3.14344</v>
       </c>
       <c r="I8">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J8">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N8">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O8">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P8">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q8">
-        <v>38.27931520704877</v>
+        <v>47.28755971760889</v>
       </c>
       <c r="R8">
-        <v>38.27931520704877</v>
+        <v>425.5880374584801</v>
       </c>
       <c r="S8">
-        <v>0.03734377293104476</v>
+        <v>0.0198359504855861</v>
       </c>
       <c r="T8">
-        <v>0.03734377293104476</v>
+        <v>0.0198359504855861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9432936425815041</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H9">
-        <v>0.9432936425815041</v>
+        <v>3.14344</v>
       </c>
       <c r="I9">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J9">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N9">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O9">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P9">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q9">
-        <v>31.40693592157078</v>
+        <v>35.44881178144</v>
       </c>
       <c r="R9">
-        <v>31.40693592157078</v>
+        <v>319.03930603296</v>
       </c>
       <c r="S9">
-        <v>0.03063935384348367</v>
+        <v>0.01486989135131164</v>
       </c>
       <c r="T9">
-        <v>0.03063935384348367</v>
+        <v>0.01486989135131164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.27155760860455</v>
+        <v>1.312552</v>
       </c>
       <c r="H10">
-        <v>1.27155760860455</v>
+        <v>3.937656</v>
       </c>
       <c r="I10">
-        <v>0.1315330041652444</v>
+        <v>0.07377892703252469</v>
       </c>
       <c r="J10">
-        <v>0.1315330041652444</v>
+        <v>0.0737789270325247</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N10">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O10">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P10">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q10">
-        <v>5.970524767946292</v>
+        <v>36.14217023663466</v>
       </c>
       <c r="R10">
-        <v>5.970524767946292</v>
+        <v>325.279532129712</v>
       </c>
       <c r="S10">
-        <v>0.005824605795777369</v>
+        <v>0.01516073790943678</v>
       </c>
       <c r="T10">
-        <v>0.005824605795777369</v>
+        <v>0.01516073790943679</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.27155760860455</v>
+        <v>1.312552</v>
       </c>
       <c r="H11">
-        <v>1.27155760860455</v>
+        <v>3.937656</v>
       </c>
       <c r="I11">
-        <v>0.1315330041652444</v>
+        <v>0.07377892703252469</v>
       </c>
       <c r="J11">
-        <v>0.1315330041652444</v>
+        <v>0.0737789270325247</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N11">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O11">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P11">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q11">
-        <v>34.92076322053926</v>
+        <v>36.10138749592533</v>
       </c>
       <c r="R11">
-        <v>34.92076322053926</v>
+        <v>324.912487463328</v>
       </c>
       <c r="S11">
-        <v>0.03406730358766881</v>
+        <v>0.01514363056809357</v>
       </c>
       <c r="T11">
-        <v>0.03406730358766881</v>
+        <v>0.01514363056809357</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.27155760860455</v>
+        <v>1.312552</v>
       </c>
       <c r="H12">
-        <v>1.27155760860455</v>
+        <v>3.937656</v>
       </c>
       <c r="I12">
-        <v>0.1315330041652444</v>
+        <v>0.07377892703252469</v>
       </c>
       <c r="J12">
-        <v>0.1315330041652444</v>
+        <v>0.0737789270325247</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N12">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O12">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P12">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q12">
-        <v>51.60042674568229</v>
+        <v>59.23515105979467</v>
       </c>
       <c r="R12">
-        <v>51.60042674568229</v>
+        <v>533.1163595381521</v>
       </c>
       <c r="S12">
-        <v>0.0503393179609686</v>
+        <v>0.02484766671075987</v>
       </c>
       <c r="T12">
-        <v>0.0503393179609686</v>
+        <v>0.02484766671075988</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.27155760860455</v>
+        <v>1.312552</v>
       </c>
       <c r="H13">
-        <v>1.27155760860455</v>
+        <v>3.937656</v>
       </c>
       <c r="I13">
-        <v>0.1315330041652444</v>
+        <v>0.07377892703252469</v>
       </c>
       <c r="J13">
-        <v>0.1315330041652444</v>
+        <v>0.0737789270325247</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N13">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O13">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P13">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q13">
-        <v>42.33647565432234</v>
+        <v>44.405245973856</v>
       </c>
       <c r="R13">
-        <v>42.33647565432234</v>
+        <v>399.647213764704</v>
       </c>
       <c r="S13">
-        <v>0.04130177682082963</v>
+        <v>0.01862689184423446</v>
       </c>
       <c r="T13">
-        <v>0.04130177682082963</v>
+        <v>0.01862689184423446</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.44668895959327</v>
+        <v>2.458986333333333</v>
       </c>
       <c r="H14">
-        <v>2.44668895959327</v>
+        <v>7.376958999999999</v>
       </c>
       <c r="I14">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="J14">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N14">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O14">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P14">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q14">
-        <v>11.48828565364309</v>
+        <v>67.71015751672421</v>
       </c>
       <c r="R14">
-        <v>11.48828565364309</v>
+        <v>609.391417650518</v>
       </c>
       <c r="S14">
-        <v>0.01120751320905625</v>
+        <v>0.02840272029036077</v>
       </c>
       <c r="T14">
-        <v>0.01120751320905625</v>
+        <v>0.02840272029036078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.44668895959327</v>
+        <v>2.458986333333333</v>
       </c>
       <c r="H15">
-        <v>2.44668895959327</v>
+        <v>7.376958999999999</v>
       </c>
       <c r="I15">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="J15">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N15">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O15">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P15">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q15">
-        <v>67.19337390150113</v>
+        <v>67.6337535326991</v>
       </c>
       <c r="R15">
-        <v>67.19337390150113</v>
+        <v>608.703781794292</v>
       </c>
       <c r="S15">
-        <v>0.06555117519412658</v>
+        <v>0.02837067072694337</v>
       </c>
       <c r="T15">
-        <v>0.06555117519412658</v>
+        <v>0.02837067072694338</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.44668895959327</v>
+        <v>2.458986333333333</v>
       </c>
       <c r="H16">
-        <v>2.44668895959327</v>
+        <v>7.376958999999999</v>
       </c>
       <c r="I16">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="J16">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N16">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O16">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P16">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q16">
-        <v>99.28782901744685</v>
+        <v>110.9734524110059</v>
       </c>
       <c r="R16">
-        <v>99.28782901744685</v>
+        <v>998.7610716990531</v>
       </c>
       <c r="S16">
-        <v>0.09686124533808745</v>
+        <v>0.04655059217233309</v>
       </c>
       <c r="T16">
-        <v>0.09686124533808745</v>
+        <v>0.04655059217233311</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.44668895959327</v>
+        <v>2.458986333333333</v>
       </c>
       <c r="H17">
-        <v>2.44668895959327</v>
+        <v>7.376958999999999</v>
       </c>
       <c r="I17">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="J17">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N17">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O17">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P17">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q17">
-        <v>81.46244170973623</v>
+        <v>83.19052729188401</v>
       </c>
       <c r="R17">
-        <v>81.46244170973623</v>
+        <v>748.714745626956</v>
       </c>
       <c r="S17">
-        <v>0.07947150854612683</v>
+        <v>0.03489634885128411</v>
       </c>
       <c r="T17">
-        <v>0.07947150854612683</v>
+        <v>0.03489634885128412</v>
       </c>
     </row>
   </sheetData>
